--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -255,7 +255,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>Sim</t>
   </si>
@@ -355,7 +355,7 @@
     <t>TranscarDataDir</t>
   </si>
   <si>
-    <t>~/U/transcar/out/gfortran</t>
+    <t>~/code/transcar/out/ifort</t>
   </si>
   <si>
     <t>ExcitationDATfn</t>
@@ -641,9 +641,6 @@
   </si>
   <si>
     <t>Arc4</t>
-  </si>
-  <si>
-    <t>useArc</t>
   </si>
   <si>
     <t>X0km</t>
@@ -1003,7 +1000,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1248,10 +1245,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1333,9 +1326,9 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1817,7 +1810,7 @@
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="33" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="13"/>
@@ -9106,12 +9099,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9139,10 +9132,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="61" t="n">
+      <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -9162,21 +9155,7 @@
       <c r="A3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -9188,126 +9167,140 @@
       <c r="A5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
+      <c r="B7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>125</v>
+      <c r="B10" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>10000</v>
+      <c r="B11" s="50" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="C11" s="50" t="n">
+        <v>225000000000</v>
+      </c>
+      <c r="D11" s="50" t="n">
+        <v>1000000000000</v>
+      </c>
+      <c r="E11" s="50" t="n">
+        <v>2800000000000</v>
+      </c>
+      <c r="F11" s="50" t="n">
+        <v>5000000000000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="50" t="n">
-        <v>80000000000</v>
-      </c>
-      <c r="C12" s="50" t="n">
-        <v>225000000000</v>
-      </c>
-      <c r="D12" s="50" t="n">
-        <v>1000000000000</v>
-      </c>
-      <c r="E12" s="50" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="F12" s="50" t="n">
-        <v>5000000000000</v>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9315,19 +9308,19 @@
         <v>128</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9335,19 +9328,19 @@
         <v>129</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9355,19 +9348,19 @@
         <v>130</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>2.5</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,19 +9368,19 @@
         <v>131</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>4</v>
+        <v>900</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>3.5</v>
+        <v>10000</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2.5</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9395,38 +9388,18 @@
         <v>132</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>900</v>
+        <v>0.145</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>3000</v>
+        <v>0.15</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4000</v>
+        <v>0.145</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1325,7 +1325,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
@@ -9101,10 +9101,10 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9274,13 +9274,13 @@
         <v>225000000000</v>
       </c>
       <c r="D11" s="50" t="n">
-        <v>1000000000000</v>
+        <v>500000000000</v>
       </c>
       <c r="E11" s="50" t="n">
-        <v>2800000000000</v>
+        <v>900000000000</v>
       </c>
       <c r="F11" s="50" t="n">
-        <v>5000000000000</v>
+        <v>1100000000000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9334,13 +9334,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,10 +9357,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9377,10 +9377,10 @@
         <v>4000</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9394,13 +9394,13 @@
         <v>0.15</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.145</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -245,6 +245,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="A44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Photoelectron/data number</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -293,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
   <si>
     <t>Sim</t>
   </si>
@@ -628,19 +641,10 @@
     <t>hst1cal.h5</t>
   </si>
   <si>
-    <t>Arc0</t>
-  </si>
-  <si>
-    <t>Arc1</t>
-  </si>
-  <si>
-    <t>Arc2</t>
-  </si>
-  <si>
-    <t>Arc3</t>
-  </si>
-  <si>
-    <t>Arc4</t>
+    <t>pixarea_m</t>
+  </si>
+  <si>
+    <t>pedn</t>
   </si>
   <si>
     <t>X0km</t>
@@ -698,11 +702,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00E+000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1000,7 +1005,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1245,6 +1250,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1974,12 +1987,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IR41"/>
+  <dimension ref="A1:IR44"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4074,10 +4087,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="50" t="n">
-        <v>100000000</v>
+        <v>100</v>
       </c>
       <c r="C9" s="50" t="n">
-        <v>100000000</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -4334,10 +4347,10 @@
         <v>81</v>
       </c>
       <c r="B10" s="50" t="n">
-        <v>100000000</v>
+        <v>100</v>
       </c>
       <c r="C10" s="50" t="n">
-        <v>100000000</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -5105,8 +5118,12 @@
       <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
+      <c r="B13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -9081,6 +9098,28 @@
         <v>110</v>
       </c>
     </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="61" t="n">
+        <v>1.6E-005</v>
+      </c>
+      <c r="C43" s="61" t="n">
+        <v>1.6E-005</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9099,12 +9138,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9115,30 +9154,36 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>115</v>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -9150,27 +9195,35 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -9182,15 +9235,21 @@
       <c r="F5" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -9202,110 +9261,146 @@
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="50" t="n">
+        <v>123</v>
+      </c>
+      <c r="B11" s="62" t="n">
         <v>80000000000</v>
       </c>
-      <c r="C11" s="50" t="n">
+      <c r="C11" s="62" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="D11" s="62" t="n">
         <v>225000000000</v>
       </c>
-      <c r="D11" s="50" t="n">
+      <c r="E11" s="62" t="n">
         <v>500000000000</v>
       </c>
-      <c r="E11" s="50" t="n">
+      <c r="F11" s="62" t="n">
+        <v>700000000000</v>
+      </c>
+      <c r="G11" s="62" t="n">
         <v>900000000000</v>
       </c>
-      <c r="F11" s="50" t="n">
+      <c r="H11" s="62" t="n">
         <v>1100000000000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>0.375</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.8</v>
@@ -9322,10 +9417,16 @@
       <c r="F13" s="0" t="n">
         <v>0.8</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -9334,18 +9435,24 @@
         <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="F14" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -9362,30 +9469,42 @@
       <c r="F15" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>900</v>
       </c>
       <c r="C16" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>4000</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>5500</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>7500</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.145</v>
@@ -9394,12 +9513,18 @@
         <v>0.15</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
   <si>
     <t>Sim</t>
   </si>
@@ -368,7 +368,7 @@
     <t>TranscarDataDir</t>
   </si>
   <si>
-    <t>~/code/transcar/out/ifort</t>
+    <t>../transcar/out/ifort2</t>
   </si>
   <si>
     <t>ExcitationDATfn</t>
@@ -419,7 +419,7 @@
     <t>OpticalFilter</t>
   </si>
   <si>
-    <t>BG3</t>
+    <t>bg3</t>
   </si>
   <si>
     <t>metastable</t>
@@ -519,12 +519,6 @@
   </si>
   <si>
     <t>lineLength</t>
-  </si>
-  <si>
-    <t>Cam0</t>
-  </si>
-  <si>
-    <t>Cam1</t>
   </si>
   <si>
     <t>useCam</t>
@@ -1338,10 +1332,10 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1515,9 +1509,6 @@
       <c r="B14" s="0"/>
       <c r="C14" s="7"/>
       <c r="G14" s="0"/>
-      <c r="H14" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -1989,10 +1980,10 @@
   </sheetPr>
   <dimension ref="A1:IR44"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2006,11 +1997,11 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>72</v>
+      <c r="B1" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44" t="n">
+        <v>1</v>
       </c>
       <c r="D1" s="45"/>
       <c r="E1" s="0"/>
@@ -2264,7 +2255,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2524,7 +2515,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="46" t="n">
         <v>0</v>
@@ -2784,7 +2775,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="46" t="n">
         <v>0</v>
@@ -3044,7 +3035,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3304,7 +3295,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="46" t="n">
         <v>90</v>
@@ -3564,7 +3555,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>9</v>
@@ -3824,7 +3815,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4084,7 +4075,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="50" t="n">
         <v>100</v>
@@ -4344,7 +4335,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="50" t="n">
         <v>100</v>
@@ -4604,7 +4595,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4860,7 +4851,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="0"/>
@@ -5116,7 +5107,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5376,7 +5367,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="53" t="n">
         <v>-1</v>
@@ -5636,7 +5627,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="55"/>
@@ -5892,7 +5883,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="55"/>
@@ -6148,7 +6139,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="58"/>
@@ -6404,7 +6395,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6914,7 +6905,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="51"/>
       <c r="C20" s="59"/>
@@ -7170,7 +7161,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="59"/>
@@ -7426,7 +7417,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7682,7 +7673,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7938,7 +7929,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8448,7 +8439,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8708,7 +8699,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8973,7 +8964,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8984,7 +8975,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8995,7 +8986,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9006,7 +8997,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9017,7 +9008,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9029,7 +9020,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="60" t="n">
         <v>65.1186367</v>
@@ -9040,7 +9031,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" s="60" t="n">
         <v>-147.432975</v>
@@ -9056,7 +9047,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9067,7 +9058,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9078,29 +9069,34 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>110</v>
-      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" s="61" t="n">
         <v>1.6E-005</v>
@@ -9111,7 +9107,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" s="43" t="n">
         <v>1</v>
@@ -9178,7 +9174,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -9204,21 +9200,21 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>0.5</v>
@@ -9244,7 +9240,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1</v>
@@ -9270,59 +9266,59 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
@@ -9348,7 +9344,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" s="62" t="n">
         <v>80000000000</v>
@@ -9374,7 +9370,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -9400,7 +9396,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.8</v>
@@ -9426,7 +9422,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -9452,7 +9448,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -9478,7 +9474,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>900</v>
@@ -9504,7 +9500,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.145</v>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
   <si>
     <t>Sim</t>
   </si>
@@ -350,19 +350,19 @@
     <t>BG3transFN</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/BG3transmittance.h5</t>
+    <t>transcarutils/precompute/BG3transmittance.h5</t>
   </si>
   <si>
     <t>windowFN</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/ixonWindowT.h5</t>
+    <t>transcarutils/precompute/ixonWindowT.h5</t>
   </si>
   <si>
     <t>emccdQEfn</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/emccdQE.h5</t>
+    <t>transcarutils/precompute/emccdQE.h5</t>
   </si>
   <si>
     <t>TranscarDataDir</t>
@@ -404,7 +404,7 @@
     <t>reactionParam</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/vjeinfc.h5</t>
+    <t>transcarutils/precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
@@ -542,7 +542,7 @@
     <t>FOVmaxLengthKM</t>
   </si>
   <si>
-    <t>noiseStd</t>
+    <t>noiseLam</t>
   </si>
   <si>
     <t>CCDBias</t>
@@ -635,10 +635,13 @@
     <t>hst1cal.h5</t>
   </si>
   <si>
-    <t>pixarea_m</t>
+    <t>pixarea_sqcm</t>
   </si>
   <si>
     <t>pedn</t>
+  </si>
+  <si>
+    <t>ampgain</t>
   </si>
   <si>
     <t>X0km</t>
@@ -703,7 +706,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -814,22 +817,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -999,7 +989,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1180,15 +1170,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1212,7 +1194,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1335,7 +1317,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1509,6 +1491,7 @@
       <c r="B14" s="0"/>
       <c r="C14" s="7"/>
       <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -1978,12 +1961,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IR44"/>
+  <dimension ref="A1:IQ45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1991,8 +1974,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="21.4030612244898"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="43" width="22.9744897959184"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="252" min="4" style="43" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="43" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +1986,7 @@
       <c r="C1" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="0"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -2251,7 +2234,6 @@
       <c r="IO1" s="0"/>
       <c r="IP1" s="0"/>
       <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -2511,19 +2493,18 @@
       <c r="IO2" s="0"/>
       <c r="IP2" s="0"/>
       <c r="IQ2" s="0"/>
-      <c r="IR2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="45" t="n">
         <v>3.1436</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -2771,16 +2752,15 @@
       <c r="IO3" s="0"/>
       <c r="IP3" s="0"/>
       <c r="IQ3" s="0"/>
-      <c r="IR3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="45" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3031,7 +3011,6 @@
       <c r="IO4" s="0"/>
       <c r="IP4" s="0"/>
       <c r="IQ4" s="0"/>
-      <c r="IR4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
@@ -3291,16 +3270,15 @@
       <c r="IO5" s="0"/>
       <c r="IP5" s="0"/>
       <c r="IQ5" s="0"/>
-      <c r="IR5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="45" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="45" t="n">
         <v>88.3</v>
       </c>
       <c r="D6" s="0"/>
@@ -3551,16 +3529,15 @@
       <c r="IO6" s="0"/>
       <c r="IP6" s="0"/>
       <c r="IQ6" s="0"/>
-      <c r="IR6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="45" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3811,7 +3788,6 @@
       <c r="IO7" s="0"/>
       <c r="IP7" s="0"/>
       <c r="IQ7" s="0"/>
-      <c r="IR7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
@@ -4071,17 +4047,16 @@
       <c r="IO8" s="0"/>
       <c r="IP8" s="0"/>
       <c r="IQ8" s="0"/>
-      <c r="IR8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="50" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="50" t="n">
-        <v>100</v>
+      <c r="B9" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="48" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -4331,16 +4306,15 @@
       <c r="IO9" s="0"/>
       <c r="IP9" s="0"/>
       <c r="IQ9" s="0"/>
-      <c r="IR9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="50" t="n">
+      <c r="B10" s="48" t="n">
         <v>100</v>
       </c>
-      <c r="C10" s="50" t="n">
+      <c r="C10" s="48" t="n">
         <v>100</v>
       </c>
       <c r="D10" s="0"/>
@@ -4591,7 +4565,6 @@
       <c r="IO10" s="0"/>
       <c r="IP10" s="0"/>
       <c r="IQ10" s="0"/>
-      <c r="IR10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
@@ -4847,13 +4820,12 @@
       <c r="IO11" s="0"/>
       <c r="IP11" s="0"/>
       <c r="IQ11" s="0"/>
-      <c r="IR11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5103,7 +5075,6 @@
       <c r="IO12" s="0"/>
       <c r="IP12" s="0"/>
       <c r="IQ12" s="0"/>
-      <c r="IR12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -5363,16 +5334,15 @@
       <c r="IO13" s="0"/>
       <c r="IP13" s="0"/>
       <c r="IQ13" s="0"/>
-      <c r="IR13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="53" t="n">
+      <c r="B14" s="51" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="53" t="n">
+      <c r="C14" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5623,14 +5593,13 @@
       <c r="IO14" s="0"/>
       <c r="IP14" s="0"/>
       <c r="IQ14" s="0"/>
-      <c r="IR14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="55"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5879,14 +5848,13 @@
       <c r="IO15" s="0"/>
       <c r="IP15" s="0"/>
       <c r="IQ15" s="0"/>
-      <c r="IR15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="55"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6135,14 +6103,13 @@
       <c r="IO16" s="0"/>
       <c r="IP16" s="0"/>
       <c r="IQ16" s="0"/>
-      <c r="IR16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6391,7 +6358,6 @@
       <c r="IO17" s="0"/>
       <c r="IP17" s="0"/>
       <c r="IQ17" s="0"/>
-      <c r="IR17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
@@ -6647,12 +6613,11 @@
       <c r="IO18" s="0"/>
       <c r="IP18" s="0"/>
       <c r="IQ18" s="0"/>
-      <c r="IR18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6901,14 +6866,13 @@
       <c r="IO19" s="0"/>
       <c r="IP19" s="0"/>
       <c r="IQ19" s="0"/>
-      <c r="IR19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7157,14 +7121,13 @@
       <c r="IO20" s="0"/>
       <c r="IP20" s="0"/>
       <c r="IQ20" s="0"/>
-      <c r="IR20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7413,7 +7376,6 @@
       <c r="IO21" s="0"/>
       <c r="IP21" s="0"/>
       <c r="IQ21" s="0"/>
-      <c r="IR21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -7669,7 +7631,6 @@
       <c r="IO22" s="0"/>
       <c r="IP22" s="0"/>
       <c r="IQ22" s="0"/>
-      <c r="IR22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -7925,7 +7886,6 @@
       <c r="IO23" s="0"/>
       <c r="IP23" s="0"/>
       <c r="IQ23" s="0"/>
-      <c r="IR23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -8181,7 +8141,6 @@
       <c r="IO24" s="0"/>
       <c r="IP24" s="0"/>
       <c r="IQ24" s="0"/>
-      <c r="IR24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -8435,7 +8394,6 @@
       <c r="IO25" s="0"/>
       <c r="IP25" s="0"/>
       <c r="IQ25" s="0"/>
-      <c r="IR25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -8448,9 +8406,9 @@
         <v>15</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -8695,7 +8653,6 @@
       <c r="IO26" s="0"/>
       <c r="IP26" s="0"/>
       <c r="IQ26" s="0"/>
-      <c r="IR26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -8708,9 +8665,9 @@
         <v>2</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -8955,7 +8912,6 @@
       <c r="IO27" s="0"/>
       <c r="IP27" s="0"/>
       <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
@@ -9022,10 +8978,10 @@
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="60" t="n">
+      <c r="B35" s="58" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="60" t="n">
+      <c r="C35" s="58" t="n">
         <v>65.12657</v>
       </c>
     </row>
@@ -9033,10 +8989,10 @@
       <c r="A36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="60" t="n">
+      <c r="B36" s="58" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="60" t="n">
+      <c r="C36" s="58" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9098,11 +9054,13 @@
       <c r="A43" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="61" t="n">
-        <v>1.6E-005</v>
-      </c>
-      <c r="C43" s="61" t="n">
-        <v>1.6E-005</v>
+      <c r="B43" s="59" t="n">
+        <f aca="false">(0.0016)^2</f>
+        <v>2.56E-006</v>
+      </c>
+      <c r="C43" s="59" t="n">
+        <f aca="false">(0.0016)^2</f>
+        <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,6 +9072,17 @@
       </c>
       <c r="C44" s="43" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" s="43" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9174,7 +9143,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -9200,21 +9169,21 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>0.5</v>
@@ -9240,7 +9209,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1</v>
@@ -9266,59 +9235,59 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
@@ -9344,33 +9313,33 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="62" t="n">
+        <v>122</v>
+      </c>
+      <c r="B11" s="60" t="n">
         <v>80000000000</v>
       </c>
-      <c r="C11" s="62" t="n">
+      <c r="C11" s="60" t="n">
         <v>100000000000</v>
       </c>
-      <c r="D11" s="62" t="n">
+      <c r="D11" s="60" t="n">
         <v>225000000000</v>
       </c>
-      <c r="E11" s="62" t="n">
+      <c r="E11" s="60" t="n">
         <v>500000000000</v>
       </c>
-      <c r="F11" s="62" t="n">
+      <c r="F11" s="60" t="n">
         <v>700000000000</v>
       </c>
-      <c r="G11" s="62" t="n">
+      <c r="G11" s="60" t="n">
         <v>900000000000</v>
       </c>
-      <c r="H11" s="62" t="n">
+      <c r="H11" s="60" t="n">
         <v>1100000000000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -9396,7 +9365,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.8</v>
@@ -9422,7 +9391,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -9448,7 +9417,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -9474,7 +9443,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>900</v>
@@ -9500,7 +9469,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.145</v>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -1315,9 +1315,9 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1797,7 +1797,7 @@
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="33" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="13"/>
@@ -1966,7 +1966,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4311,12 +4311,8 @@
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="48" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="48" t="n">
-        <v>100</v>
-      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -9108,7 +9104,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9119,25 +9115,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="n">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1" s="4" t="n">
         <v>6</v>
       </c>
     </row>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -1797,7 +1797,7 @@
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="33" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="13"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1314,10 +1314,10 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1963,10 +1963,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4053,10 +4053,10 @@
         <v>78</v>
       </c>
       <c r="B9" s="48" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" s="48" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
   <si>
     <t>Sim</t>
   </si>
@@ -383,6 +383,9 @@
     <t>2013-03-31T09:00:30Z</t>
   </si>
   <si>
+    <t>timestepsPerExposure</t>
+  </si>
+  <si>
     <t>simconfig</t>
   </si>
   <si>
@@ -642,6 +645,9 @@
   </si>
   <si>
     <t>ampgain</t>
+  </si>
+  <si>
+    <t>tReqOffsetSec</t>
   </si>
   <si>
     <t>X0km</t>
@@ -1315,9 +1321,9 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="E52" activeCellId="1" sqref="B6:H6 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1466,29 +1472,31 @@
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="0"/>
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="G12" s="0"/>
-      <c r="H12" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="5"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0"/>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -1500,69 +1508,67 @@
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
       <c r="G15" s="0"/>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
       <c r="G16" s="0"/>
       <c r="H16" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
       <c r="G17" s="0"/>
       <c r="H17" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="0"/>
       <c r="C18" s="7"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
       <c r="G20" s="0"/>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7"/>
       <c r="G21" s="0"/>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -1587,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1621,47 +1627,47 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B27" s="21"/>
       <c r="C27" s="7"/>
       <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
       <c r="B28" s="21"/>
       <c r="C28" s="7"/>
       <c r="G28" s="0"/>
-      <c r="H28" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="7"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
+      <c r="H29" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="25"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
     </row>
@@ -1669,86 +1675,83 @@
       <c r="A32" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21"/>
+      <c r="B32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="25"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="21"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="G34" s="27" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
-      <c r="G35" s="0"/>
+      <c r="G35" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="H35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>50</v>
-      </c>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
-      <c r="G36" s="28"/>
+      <c r="G36" s="0"/>
       <c r="H36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
       <c r="G38" s="29"/>
       <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
-        <v>52</v>
-      </c>
+      <c r="A39" s="4"/>
       <c r="B39" s="0"/>
-      <c r="C39" s="13"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="15" t="n">
+      <c r="C39" s="0"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="13"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="s">
@@ -1756,37 +1759,37 @@
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
+      <c r="D41" s="31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E41" s="32"/>
       <c r="F41" s="5"/>
       <c r="G41" s="0"/>
       <c r="H41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="33" t="n">
-        <v>-3.8</v>
-      </c>
+      <c r="D42" s="33"/>
       <c r="E42" s="34"/>
       <c r="F42" s="5"/>
       <c r="G42" s="0"/>
       <c r="H42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
       <c r="D43" s="33" t="n">
-        <v>7.1</v>
+        <v>-3.8</v>
       </c>
       <c r="E43" s="34"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="0"/>
       <c r="H43" s="0"/>
     </row>
@@ -1797,7 +1800,7 @@
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="33" t="n">
-        <v>89</v>
+        <v>7.1</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="13"/>
@@ -1810,75 +1813,81 @@
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E45" s="36"/>
+      <c r="D45" s="33" t="n">
+        <v>89</v>
+      </c>
+      <c r="E45" s="34"/>
       <c r="F45" s="13"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="D46" s="35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="36"/>
       <c r="F46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="15"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="7"/>
-      <c r="E49" s="0" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="7"/>
+      <c r="E50" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="n">
-        <v>10</v>
-      </c>
       <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="F52" s="39"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
@@ -1886,7 +1895,7 @@
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -1894,7 +1903,7 @@
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
-      <c r="F54" s="41"/>
+      <c r="F54" s="40"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -1902,7 +1911,7 @@
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
-      <c r="F55" s="40"/>
+      <c r="F55" s="41"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -1910,38 +1919,45 @@
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
-      <c r="F56" s="27"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4"/>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="E58" s="42"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="E59" s="42"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1963,10 +1979,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C45" activeCellId="1" sqref="B6:H6 C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2237,7 +2253,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2496,7 +2512,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="45" t="n">
         <v>0</v>
@@ -2755,7 +2771,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="45" t="n">
         <v>0</v>
@@ -3014,7 +3030,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3273,7 +3289,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="45" t="n">
         <v>90</v>
@@ -3532,7 +3548,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="45" t="n">
         <v>9</v>
@@ -3791,7 +3807,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4050,13 +4066,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="48" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C9" s="48" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -4309,7 +4325,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -4564,7 +4580,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4819,7 +4835,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="0"/>
@@ -5074,7 +5090,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5333,7 +5349,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="51" t="n">
         <v>-1</v>
@@ -5592,7 +5608,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="53"/>
@@ -5847,7 +5863,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="53"/>
@@ -6102,7 +6118,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
@@ -6357,7 +6373,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6865,7 +6881,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="57"/>
@@ -7120,7 +7136,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="57"/>
@@ -7375,7 +7391,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7630,7 +7646,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7885,7 +7901,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8393,7 +8409,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8652,7 +8668,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8916,7 +8932,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8927,7 +8943,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8938,7 +8954,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8949,7 +8965,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8960,7 +8976,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8972,7 +8988,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="58" t="n">
         <v>65.1186367</v>
@@ -8983,7 +8999,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="58" t="n">
         <v>-147.432975</v>
@@ -8999,7 +9015,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9010,7 +9026,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9021,24 +9037,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9048,7 +9064,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B43" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -9061,7 +9077,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="43" t="n">
         <v>1</v>
@@ -9072,13 +9088,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C45" s="43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9099,12 +9115,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9139,121 +9155,107 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>118</v>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9282,211 +9284,237 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>3750</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="60" t="n">
-        <v>80000000000</v>
-      </c>
-      <c r="C11" s="60" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="D11" s="60" t="n">
-        <v>225000000000</v>
-      </c>
-      <c r="E11" s="60" t="n">
-        <v>500000000000</v>
-      </c>
-      <c r="F11" s="60" t="n">
-        <v>700000000000</v>
-      </c>
-      <c r="G11" s="60" t="n">
-        <v>900000000000</v>
-      </c>
-      <c r="H11" s="60" t="n">
-        <v>1100000000000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.25</v>
+        <v>124</v>
+      </c>
+      <c r="B12" s="60" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="C12" s="60" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="D12" s="60" t="n">
+        <v>225000000000</v>
+      </c>
+      <c r="E12" s="60" t="n">
+        <v>500000000000</v>
+      </c>
+      <c r="F12" s="60" t="n">
+        <v>700000000000</v>
+      </c>
+      <c r="G12" s="60" t="n">
+        <v>900000000000</v>
+      </c>
+      <c r="H12" s="60" t="n">
+        <v>1100000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>900</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4750</v>
+        <v>4</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>5500</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>7500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>0.145</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C18" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -995,7 +995,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1236,6 +1236,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1323,7 +1327,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E52" activeCellId="1" sqref="B6:H6 E52"/>
+      <selection pane="bottomLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1982,7 +1986,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C45" activeCellId="1" sqref="B6:H6 C45"/>
+      <selection pane="bottomLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9120,7 +9124,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6:H6"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9158,13 +9162,27 @@
       <c r="A2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="60" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E2" s="60" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2" s="60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2" s="60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="60" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -9315,51 +9333,51 @@
         <v>123</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1000</v>
+        <v>3750</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3750</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>10000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="60" t="n">
-        <v>80000000000</v>
-      </c>
-      <c r="C12" s="60" t="n">
+      <c r="B12" s="61" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="C12" s="61" t="n">
+        <v>900000000000</v>
+      </c>
+      <c r="D12" s="61" t="n">
+        <v>700000000000</v>
+      </c>
+      <c r="E12" s="61" t="n">
+        <v>500000000000</v>
+      </c>
+      <c r="F12" s="61" t="n">
+        <v>225000000000</v>
+      </c>
+      <c r="G12" s="61" t="n">
         <v>100000000000</v>
       </c>
-      <c r="D12" s="60" t="n">
-        <v>225000000000</v>
-      </c>
-      <c r="E12" s="60" t="n">
-        <v>500000000000</v>
-      </c>
-      <c r="F12" s="60" t="n">
-        <v>700000000000</v>
-      </c>
-      <c r="G12" s="60" t="n">
-        <v>900000000000</v>
-      </c>
-      <c r="H12" s="60" t="n">
-        <v>1100000000000</v>
+      <c r="H12" s="61" t="n">
+        <v>110000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9367,25 +9385,25 @@
         <v>125</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.9</v>
+        <v>0.375</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.375</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9422,19 +9440,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3</v>
@@ -9471,25 +9489,25 @@
         <v>129</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>900</v>
+        <v>7500</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1200</v>
+        <v>5500</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3000</v>
+        <v>4750</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4750</v>
+        <v>3000</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9497,25 +9515,25 @@
         <v>130</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.145</v>
+        <v>0.4</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.4</v>
+        <v>0.145</v>
       </c>
     </row>
   </sheetData>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1983,10 +1983,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4073,10 +4073,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="48" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C9" s="48" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -9121,7 +9121,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -1327,7 +1327,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="E52" activeCellId="1" sqref="C24 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1983,10 +1983,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7907,8 +7907,14 @@
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B9*0.9</f>
+        <v>225</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">C9*0.9</f>
+        <v>225</v>
+      </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -9124,7 +9130,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="C24 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,12 +65,26 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t>[nm] for plotting only
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t>none
 bg3</t>
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0">
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Sim</t>
   </si>
@@ -417,6 +431,12 @@
   </si>
   <si>
     <t>downsampleEnergy</t>
+  </si>
+  <si>
+    <t>lambdamin</t>
+  </si>
+  <si>
+    <t>lambdamax</t>
   </si>
   <si>
     <t>OpticalFilter</t>
@@ -712,7 +732,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -786,6 +806,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF9900FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -995,7 +1021,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1072,6 +1098,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1080,7 +1110,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1096,7 +1126,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1172,11 +1202,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1200,7 +1230,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1322,15 +1352,15 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E52" activeCellId="1" sqref="C24 E52"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
@@ -1343,7 +1373,7 @@
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1427,7 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1458,7 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1547,7 +1577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
@@ -1559,143 +1589,140 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="7"/>
       <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19" t="n">
+        <v>200</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="G21" s="0"/>
-      <c r="H21" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19" t="n">
+        <v>1200</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="G23" s="0"/>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
       <c r="G24" s="0"/>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="21"/>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="7"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="7"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="22"/>
+      <c r="C32" s="7"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
@@ -1704,202 +1731,206 @@
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="G35" s="27" t="s">
+      <c r="B35" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
+      <c r="B36" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="22"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="29"/>
+      <c r="G39" s="0"/>
       <c r="H39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="0"/>
-      <c r="C40" s="13"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="C40" s="0"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="D41" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="0"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="0"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="13"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="33" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="33" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="13"/>
+      <c r="D44" s="32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30" t="s">
-        <v>58</v>
+      <c r="A45" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="33" t="n">
-        <v>89</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="13"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
-        <v>59</v>
+      <c r="A46" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="13"/>
+      <c r="D46" s="34" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="D47" s="34" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E47" s="35"/>
       <c r="F47" s="13"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="15"/>
+      <c r="D48" s="34" t="n">
+        <v>89</v>
+      </c>
+      <c r="E48" s="35"/>
       <c r="F48" s="13"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
+      <c r="A49" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="D49" s="36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="37"/>
       <c r="F49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="7"/>
-      <c r="E50" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="E51" s="15"/>
       <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="7"/>
+      <c r="E53" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="F53" s="39"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -1907,19 +1938,20 @@
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
-      <c r="F54" s="40"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="F55" s="41"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1927,42 +1959,64 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="27"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="41"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1983,27 +2037,27 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="43" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.0459183673469"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
     <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="44" t="n">
+      <c r="B1" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="n">
+      <c r="C1" s="45" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2257,7 +2311,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2515,13 +2569,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="45" t="n">
+      <c r="A3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="n">
+      <c r="C3" s="46" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2774,13 +2828,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="45" t="n">
+      <c r="A4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="45" t="n">
+      <c r="C4" s="46" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3033,8 +3087,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>75</v>
+      <c r="A5" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3292,13 +3346,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="45" t="n">
+      <c r="A6" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="46" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="46" t="n">
         <v>88.3</v>
       </c>
       <c r="D6" s="0"/>
@@ -3551,13 +3605,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="45" t="n">
+      <c r="A7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="45" t="n">
+      <c r="C7" s="46" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3810,8 +3864,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>78</v>
+      <c r="A8" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4070,12 +4124,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="48" t="n">
+        <v>81</v>
+      </c>
+      <c r="B9" s="49" t="n">
         <v>250</v>
       </c>
-      <c r="C9" s="48" t="n">
+      <c r="C9" s="49" t="n">
         <v>250</v>
       </c>
       <c r="D9" s="0"/>
@@ -4329,10 +4383,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4583,8 +4637,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>81</v>
+      <c r="A11" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4839,9 +4893,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="50"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5094,7 +5148,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5352,13 +5406,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="51" t="n">
+      <c r="A14" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="52" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="51" t="n">
+      <c r="C14" s="52" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5611,11 +5665,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
-        <v>85</v>
+      <c r="A15" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5866,11 +5920,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
-        <v>86</v>
+      <c r="A16" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6121,11 +6175,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6377,7 +6431,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6633,7 +6687,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6885,10 +6939,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="57"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7140,10 +7194,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="57"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7395,7 +7449,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7650,7 +7704,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7905,7 +7959,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8419,7 +8473,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8678,7 +8732,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8942,7 +8996,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8953,7 +9007,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8964,7 +9018,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8975,7 +9029,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8986,7 +9040,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8998,23 +9052,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="58" t="n">
+        <v>103</v>
+      </c>
+      <c r="B35" s="59" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="58" t="n">
+      <c r="C35" s="59" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="58" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" s="59" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="58" t="n">
+      <c r="C36" s="59" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9025,7 +9079,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9036,7 +9090,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9047,24 +9101,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9073,37 +9127,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="59" t="n">
+      <c r="A43" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="59" t="n">
+      <c r="C43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="43" t="n">
+      <c r="A44" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="43" t="n">
+      <c r="C44" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="43" t="n">
+      <c r="A45" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="43" t="n">
+      <c r="C45" s="44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9130,7 +9184,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="C24 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9166,33 +9220,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="60" t="n">
+      <c r="C2" s="61" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="60" t="n">
+      <c r="D2" s="61" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="60" t="n">
+      <c r="E2" s="61" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="60" t="n">
+      <c r="F2" s="61" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="60" t="n">
+      <c r="G2" s="61" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="60" t="n">
+      <c r="H2" s="61" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -9218,21 +9272,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9258,7 +9312,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9284,59 +9338,59 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10000</v>
@@ -9362,33 +9416,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="61" t="n">
+        <v>126</v>
+      </c>
+      <c r="B12" s="62" t="n">
         <v>1100000000000</v>
       </c>
-      <c r="C12" s="61" t="n">
+      <c r="C12" s="62" t="n">
         <v>900000000000</v>
       </c>
-      <c r="D12" s="61" t="n">
+      <c r="D12" s="62" t="n">
         <v>700000000000</v>
       </c>
-      <c r="E12" s="61" t="n">
+      <c r="E12" s="62" t="n">
         <v>500000000000</v>
       </c>
-      <c r="F12" s="61" t="n">
+      <c r="F12" s="62" t="n">
         <v>225000000000</v>
       </c>
-      <c r="G12" s="61" t="n">
+      <c r="G12" s="62" t="n">
         <v>100000000000</v>
       </c>
-      <c r="H12" s="61" t="n">
+      <c r="H12" s="62" t="n">
         <v>110000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
@@ -9414,7 +9468,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9440,7 +9494,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -9466,7 +9520,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9492,7 +9546,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7500</v>
@@ -9518,7 +9572,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.4</v>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1354,7 +1354,7 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
@@ -1593,6 +1593,7 @@
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
       <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
@@ -1603,6 +1604,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
@@ -1613,6 +1615,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
@@ -9181,10 +9184,10 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9249,25 +9252,25 @@
         <v>116</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1354,9 +1354,9 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -9184,10 +9184,10 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9252,25 +9252,25 @@
         <v>116</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0">
+    <comment ref="A60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
   <si>
     <t>Sim</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>OptimMaxiter</t>
+  </si>
+  <si>
+    <t>minflux</t>
   </si>
   <si>
     <t>maxIter</t>
@@ -1352,12 +1355,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1948,17 +1951,21 @@
       <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="F56" s="40"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -1966,7 +1973,7 @@
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="41"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -1974,7 +1981,7 @@
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="42"/>
+      <c r="F58" s="41"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -1982,7 +1989,7 @@
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -1990,35 +1997,43 @@
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="28"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="E62" s="43"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2314,7 +2329,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2573,7 +2588,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="46" t="n">
         <v>0</v>
@@ -2832,7 +2847,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="46" t="n">
         <v>0</v>
@@ -3091,7 +3106,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3350,7 +3365,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="46" t="n">
         <v>90</v>
@@ -3609,7 +3624,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>9</v>
@@ -3868,7 +3883,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4127,7 +4142,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="49" t="n">
         <v>250</v>
@@ -4386,7 +4401,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -4641,7 +4656,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4896,7 +4911,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="0"/>
@@ -5151,7 +5166,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5410,7 +5425,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>-1</v>
@@ -5669,7 +5684,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="54"/>
@@ -5924,7 +5939,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="54"/>
@@ -6179,7 +6194,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
@@ -6434,7 +6449,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6942,7 +6957,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="58"/>
@@ -7197,7 +7212,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="58"/>
@@ -7452,7 +7467,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7707,7 +7722,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7962,7 +7977,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8476,7 +8491,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8735,7 +8750,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8999,7 +9014,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9010,7 +9025,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9021,7 +9036,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9032,7 +9047,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9043,7 +9058,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9055,7 +9070,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="59" t="n">
         <v>65.1186367</v>
@@ -9066,7 +9081,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="59" t="n">
         <v>-147.432975</v>
@@ -9082,7 +9097,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9093,7 +9108,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9104,24 +9119,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9131,7 +9146,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -9144,7 +9159,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="44" t="n">
         <v>1</v>
@@ -9155,7 +9170,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="44" t="n">
         <v>1</v>
@@ -9184,7 +9199,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
@@ -9223,7 +9238,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
@@ -9249,7 +9264,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -9275,21 +9290,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9315,7 +9330,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9341,59 +9356,59 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10000</v>
@@ -9419,7 +9434,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" s="62" t="n">
         <v>1100000000000</v>
@@ -9445,7 +9460,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
@@ -9471,7 +9486,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9497,7 +9512,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -9523,7 +9538,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9549,7 +9564,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7500</v>
@@ -9575,7 +9590,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.4</v>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Cameras" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Arcs" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Arc0" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Arc1" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="Excel_BuiltIn_Print_Area" vbProcedure="false">NA()</definedName>
@@ -320,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>Sim</t>
   </si>
@@ -1355,12 +1356,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B79" activeCellId="1" sqref="C11:H18 B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1873,7 +1874,7 @@
       <c r="G47" s="0"/>
       <c r="H47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
         <v>60</v>
       </c>
@@ -2035,6 +2036,7 @@
       </c>
       <c r="C65" s="5"/>
     </row>
+    <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2058,7 +2060,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="1" sqref="C11:H18 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3371,7 +3373,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="46" t="n">
-        <v>88.3</v>
+        <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
@@ -9197,12 +9199,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="1" sqref="C11:H18 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9236,7 +9238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>116</v>
       </c>
@@ -9262,7 +9264,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>117</v>
       </c>
@@ -9614,6 +9616,7 @@
         <v>0.145</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9624,4 +9627,433 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="61" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E2" s="61" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2" s="61" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2" s="61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="61" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="62" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="C12" s="62" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="D12" s="62" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="E12" s="62" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="F12" s="62" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="G12" s="62" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="H12" s="62" t="n">
+        <v>1100000000000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Cameras" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Arc0" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Arc1" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="Excel_BuiltIn_Print_Area" vbProcedure="false">NA()</definedName>
@@ -145,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,51 +276,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Gaussian: gaussian horizontal shape
-Rect: boxcar horizontal shape
-Sinc2: Sinc(.)^2 horizontal shaping
-None: no smearing at all horizontally</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Chapman: Chapman-like in Z
-Rect: boxcar
-transcar: from the classic Fortran program</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
   <si>
     <t>Sim</t>
   </si>
@@ -522,6 +478,9 @@
   </si>
   <si>
     <t>minflux</t>
+  </si>
+  <si>
+    <t>mingaussEv</t>
   </si>
   <si>
     <t>maxIter</t>
@@ -1356,12 +1315,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B79" activeCellId="1" sqref="C11:H18 B79"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1939,7 +1898,7 @@
       </c>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
@@ -1959,22 +1918,26 @@
       <c r="C55" s="0"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="F57" s="40"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="n">
+        <v>800</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -1982,7 +1945,7 @@
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="41"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -1990,7 +1953,7 @@
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="42"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -1998,7 +1961,7 @@
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="41"/>
+      <c r="F60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -2006,37 +1969,45 @@
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="28"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="E63" s="43"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2057,10 +2028,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="1" sqref="C11:H18 C6"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2331,7 +2302,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2590,7 +2561,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="46" t="n">
         <v>0</v>
@@ -2849,7 +2820,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="46" t="n">
         <v>0</v>
@@ -3108,7 +3079,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3367,7 +3338,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="46" t="n">
         <v>90</v>
@@ -3626,7 +3597,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>9</v>
@@ -3885,7 +3856,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4144,7 +4115,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="49" t="n">
         <v>250</v>
@@ -4403,7 +4374,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -4658,7 +4629,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4913,7 +4884,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="0"/>
@@ -5168,7 +5139,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5427,7 +5398,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>-1</v>
@@ -5686,7 +5657,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="54"/>
@@ -5941,7 +5912,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="54"/>
@@ -6196,7 +6167,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
@@ -6451,7 +6422,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6959,7 +6930,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="58"/>
@@ -7214,7 +7185,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="58"/>
@@ -7469,7 +7440,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7724,7 +7695,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7979,7 +7950,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8493,7 +8464,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8752,7 +8723,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -9016,7 +8987,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9027,7 +8998,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9038,7 +9009,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9049,7 +9020,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9060,7 +9031,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9072,7 +9043,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="59" t="n">
         <v>65.1186367</v>
@@ -9083,7 +9054,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="59" t="n">
         <v>-147.432975</v>
@@ -9099,7 +9070,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9110,7 +9081,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9121,24 +9092,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9148,7 +9119,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -9161,7 +9132,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B44" s="44" t="n">
         <v>1</v>
@@ -9172,7 +9143,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B45" s="44" t="n">
         <v>1</v>
@@ -9201,448 +9172,17 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="1" sqref="C11:H18 B1"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3367346938776"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5561224489796"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="61" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="61" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E2" s="61" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F2" s="61" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G2" s="61" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="61" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3750</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="62" t="n">
-        <v>1100000000000</v>
-      </c>
-      <c r="C12" s="62" t="n">
-        <v>900000000000</v>
-      </c>
-      <c r="D12" s="62" t="n">
-        <v>700000000000</v>
-      </c>
-      <c r="E12" s="62" t="n">
-        <v>500000000000</v>
-      </c>
-      <c r="F12" s="62" t="n">
-        <v>225000000000</v>
-      </c>
-      <c r="G12" s="62" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="H12" s="62" t="n">
-        <v>110000000000</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>4750</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.145</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9671,7 +9211,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
@@ -9697,47 +9237,47 @@
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9761,9 +9301,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9787,139 +9327,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>10000</v>
+        <v>750</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="62" t="n">
         <v>1100000000000</v>
       </c>
       <c r="C12" s="62" t="n">
-        <v>1100000000000</v>
+        <v>900000000000</v>
       </c>
       <c r="D12" s="62" t="n">
-        <v>1100000000000</v>
+        <v>700000000000</v>
       </c>
       <c r="E12" s="62" t="n">
-        <v>1100000000000</v>
+        <v>500000000000</v>
       </c>
       <c r="F12" s="62" t="n">
-        <v>1100000000000</v>
+        <v>225000000000</v>
       </c>
       <c r="G12" s="62" t="n">
-        <v>1100000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="H12" s="62" t="n">
-        <v>1100000000000</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110000000000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9943,21 +9483,21 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>3</v>
@@ -9969,9 +9509,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9995,58 +9535,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7500</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -321,19 +321,19 @@
     <t>BG3transFN</t>
   </si>
   <si>
-    <t>transcarutils/precompute/BG3transmittance.h5</t>
+    <t>gridaurora/precompute/BG3transmittance.h5</t>
   </si>
   <si>
     <t>windowFN</t>
   </si>
   <si>
-    <t>transcarutils/precompute/ixonWindowT.h5</t>
+    <t>gridaurora/precompute/ixonWindowT.h5</t>
   </si>
   <si>
     <t>emccdQEfn</t>
   </si>
   <si>
-    <t>transcarutils/precompute/emccdQE.h5</t>
+    <t>gridaurora/precompute/emccdQE.h5</t>
   </si>
   <si>
     <t>TranscarDataDir</t>
@@ -378,7 +378,7 @@
     <t>reactionParam</t>
   </si>
   <si>
-    <t>transcarutils/precompute/vjeinfc.h5</t>
+    <t>gridaurora/precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
@@ -1318,9 +1318,9 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -339,7 +339,7 @@
     <t>TranscarDataDir</t>
   </si>
   <si>
-    <t>../transcar/out/ifort2</t>
+    <t>test/data</t>
   </si>
   <si>
     <t>ExcitationDATfn</t>
@@ -372,7 +372,7 @@
     <t>BeamEnergyFN</t>
   </si>
   <si>
-    <t>../transcar/dir.transcar.server/BT_E1E2prev.csv</t>
+    <t>test/data/BT_E1E2prev.csv</t>
   </si>
   <si>
     <t>reactionParam</t>
@@ -384,7 +384,7 @@
     <t>altitudePreload</t>
   </si>
   <si>
-    <t>../transcar/dir.transcar.server/dir.input/conttanh.dat</t>
+    <t>test/data/conttanh.dat</t>
   </si>
   <si>
     <t>downsampleEnergy</t>
@@ -1320,7 +1320,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -102,10 +101,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -118,7 +115,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -132,10 +128,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -148,10 +142,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -167,7 +159,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -204,7 +195,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -219,7 +209,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -236,7 +225,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -250,7 +238,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -321,19 +308,19 @@
     <t>BG3transFN</t>
   </si>
   <si>
-    <t>gridaurora/precompute/BG3transmittance.h5</t>
+    <t>precompute/BG3transmittance.h5</t>
   </si>
   <si>
     <t>windowFN</t>
   </si>
   <si>
-    <t>gridaurora/precompute/ixonWindowT.h5</t>
+    <t>precompute/ixonWindowT.h5</t>
   </si>
   <si>
     <t>emccdQEfn</t>
   </si>
   <si>
-    <t>gridaurora/precompute/emccdQE.h5</t>
+    <t>precompute/emccdQE.h5</t>
   </si>
   <si>
     <t>TranscarDataDir</t>
@@ -378,7 +365,7 @@
     <t>reactionParam</t>
   </si>
   <si>
-    <t>gridaurora/precompute/vjeinfc.h5</t>
+    <t>precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
@@ -1320,20 +1307,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.91836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,11 +2023,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="44" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9180,9 +9166,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -682,7 +682,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -779,14 +779,6 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1152,11 +1144,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1180,7 +1172,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1305,9 +1297,9 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1904,9 +1896,7 @@
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E55" s="5"/>
       <c r="F55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="970" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>1: Use raw data from HST cameras
+          <t xml:space="preserve">1: Use raw data from HST cameras
 0: make an auroral phantom using “TrueArc” parameters below</t>
         </r>
       </text>
@@ -51,7 +51,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Factor of downsampling in energy space</t>
+          <t xml:space="preserve">Factor of downsampling in energy space</t>
         </r>
       </text>
     </comment>
@@ -64,8 +64,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>[nm] for plotting only
-</t>
+          <t xml:space="preserve">[nm] for plotting only</t>
         </r>
       </text>
     </comment>
@@ -78,7 +77,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>none
+          <t xml:space="preserve">none
 bg3</t>
         </r>
       </text>
@@ -92,7 +91,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>1: use dahlgren 2013 eigenprofiles
+          <t xml:space="preserve">1: use dahlgren 2013 eigenprofiles
 0: use locally computed Transcar profiles</t>
         </r>
       </text>
@@ -106,7 +105,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Use this normally</t>
+          <t xml:space="preserve">Use this normally</t>
         </r>
       </text>
     </comment>
@@ -119,7 +118,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Arbitrary: just spread angles across pixels linearly
+          <t xml:space="preserve">Arbitrary: just spread angles across pixels linearly
 Astrometry: calibrated pixels to skymap</t>
         </r>
       </text>
@@ -133,7 +132,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>transcar
+          <t xml:space="preserve">transcar
 arb</t>
         </r>
       </text>
@@ -147,7 +146,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>ArbChapman: User-placed chapman arc(s)
+          <t xml:space="preserve">ArbChapman: User-placed chapman arc(s)
 SmartChapman: two-step JLS algorithm (not yet implemented)
 backproj: using simple inv(L)*d
 tsvd: truncated SVD</t>
@@ -163,7 +162,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>LineLength: To be consistent with definition of Rayleighs</t>
+          <t xml:space="preserve">LineLength: To be consistent with definition of Rayleighs</t>
         </r>
       </text>
     </comment>
@@ -176,7 +175,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Put Z at end for UTC—required!</t>
+          <t xml:space="preserve">Put Z at end for UTC—required!</t>
         </r>
       </text>
     </comment>
@@ -199,7 +198,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>1: use this camera (necessary when computing L)
+          <t xml:space="preserve">1: use this camera (necessary when computing L)
 0: ignore this camera</t>
         </r>
       </text>
@@ -213,7 +212,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>These two options (must) only take effort for “arbitrary” angle mapping!
+          <t xml:space="preserve">These two options (must) only take effort for “arbitrary” angle mapping!
 3.1436km: 88.3 deg
 10km: 86.5 deg
 50km: 76 deg, 30.5 deg fov, 1500km max length</t>
@@ -229,7 +228,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Factor to scale data numbers by (1: keep original data numbers)</t>
+          <t xml:space="preserve">Factor to scale data numbers by (1: keep original data numbers)</t>
         </r>
       </text>
     </comment>
@@ -242,7 +241,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Support width (pixels) for smoothing</t>
+          <t xml:space="preserve">Support width (pixels) for smoothing</t>
         </r>
       </text>
     </comment>
@@ -255,7 +254,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Photoelectron/data number</t>
+          <t xml:space="preserve">Photoelectron/data number</t>
         </r>
       </text>
     </comment>
@@ -1296,7 +1295,7 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
@@ -9148,10 +9147,10 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9363,13 +9362,13 @@
         <v>10000</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5000</v>
+        <v>5250</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3750</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1000</v>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="970" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: Use raw data from HST cameras
+          <t>1: Use raw data from HST cameras
 0: make an auroral phantom using “TrueArc” parameters below</t>
         </r>
       </text>
@@ -51,7 +51,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Factor of downsampling in energy space</t>
+          <t>Factor of downsampling in energy space</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[nm] for plotting only</t>
+          <t>[nm] for plotting only</t>
         </r>
       </text>
     </comment>
@@ -77,7 +77,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">none
+          <t>none
 bg3</t>
         </r>
       </text>
@@ -91,7 +91,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: use dahlgren 2013 eigenprofiles
+          <t>1: use dahlgren 2013 eigenprofiles
 0: use locally computed Transcar profiles</t>
         </r>
       </text>
@@ -105,7 +105,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Use this normally</t>
+          <t>Use this normally</t>
         </r>
       </text>
     </comment>
@@ -118,7 +118,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Arbitrary: just spread angles across pixels linearly
+          <t>Arbitrary: just spread angles across pixels linearly
 Astrometry: calibrated pixels to skymap</t>
         </r>
       </text>
@@ -132,7 +132,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">transcar
+          <t>transcar
 arb</t>
         </r>
       </text>
@@ -146,7 +146,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ArbChapman: User-placed chapman arc(s)
+          <t>ArbChapman: User-placed chapman arc(s)
 SmartChapman: two-step JLS algorithm (not yet implemented)
 backproj: using simple inv(L)*d
 tsvd: truncated SVD</t>
@@ -162,7 +162,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">LineLength: To be consistent with definition of Rayleighs</t>
+          <t>LineLength: To be consistent with definition of Rayleighs</t>
         </r>
       </text>
     </comment>
@@ -175,7 +175,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Put Z at end for UTC—required!</t>
+          <t>Put Z at end for UTC—required!</t>
         </r>
       </text>
     </comment>
@@ -198,7 +198,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: use this camera (necessary when computing L)
+          <t>1: use this camera (necessary when computing L)
 0: ignore this camera</t>
         </r>
       </text>
@@ -212,7 +212,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">These two options (must) only take effort for “arbitrary” angle mapping!
+          <t>These two options (must) only take effort for “arbitrary” angle mapping!
 3.1436km: 88.3 deg
 10km: 86.5 deg
 50km: 76 deg, 30.5 deg fov, 1500km max length</t>
@@ -228,7 +228,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Factor to scale data numbers by (1: keep original data numbers)</t>
+          <t>Factor to scale data numbers by (1: keep original data numbers)</t>
         </r>
       </text>
     </comment>
@@ -241,7 +241,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Support width (pixels) for smoothing</t>
+          <t>Support width (pixels) for smoothing</t>
         </r>
       </text>
     </comment>
@@ -254,7 +254,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Photoelectron/data number</t>
+          <t>Photoelectron/data number</t>
         </r>
       </text>
     </comment>
@@ -1295,10 +1295,10 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9147,7 +9147,7 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -526,7 +526,7 @@
     <t>timeShiftSec</t>
   </si>
   <si>
-    <t>frameRateHz</t>
+    <t>kineticsec</t>
   </si>
   <si>
     <t>rotCCW</t>
@@ -1295,7 +1295,7 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
@@ -1303,15 +1303,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,18 +2004,18 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="44" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="44" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,10 +5117,10 @@
         <v>87</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -9155,9 +9155,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm_Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Sim</t>
   </si>
@@ -275,12 +280,6 @@
   </si>
   <si>
     <t>Recon</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Obs</t>
   </si>
   <si>
     <t>Transcar</t>
@@ -674,12 +673,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -830,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -909,13 +907,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -962,7 +953,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -971,12 +962,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1079,14 +1070,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1123,18 +1106,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,15 +1122,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1187,7 +1158,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1203,15 +1174,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1293,239 +1264,213 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="13"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="14" t="s">
-        <v>22</v>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="14" t="s">
-        <v>24</v>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="15" t="s">
-        <v>27</v>
+      <c r="F13" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="16" t="s">
-        <v>31</v>
+      <c r="F16" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="16" t="s">
-        <v>33</v>
+      <c r="F17" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="16" t="s">
-        <v>35</v>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1533,111 +1478,100 @@
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>1200</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1645,199 +1579,174 @@
       <c r="A31" s="4"/>
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="7"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="23" t="n">
+      <c r="F32" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="26" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="G38" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="0"/>
+      <c r="C38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
+      <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="0"/>
+      <c r="F40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="0"/>
+      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="0"/>
+      <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="13"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="15" t="n">
+      <c r="F43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>56</v>
+      <c r="A44" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="32" t="n">
+      <c r="D44" s="30" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
-        <v>57</v>
+      <c r="A45" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
+      <c r="A46" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="34" t="n">
+      <c r="D46" s="32" t="n">
         <v>-3.8</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
+      <c r="A47" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="34" t="n">
+      <c r="D47" s="32" t="n">
         <v>7.1</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
-        <v>60</v>
+      <c r="E47" s="33"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="34" t="n">
+      <c r="D48" s="32" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
-        <v>61</v>
+      <c r="A49" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
@@ -1845,17 +1754,15 @@
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
@@ -1863,22 +1770,20 @@
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
@@ -1886,21 +1791,19 @@
       <c r="E54" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1908,82 +1811,73 @@
       <c r="E56" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="41"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
-        <v>74</v>
+      <c r="A66" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2004,7 +1898,7 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
@@ -2012,18 +1906,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="44" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="45" t="n">
+      <c r="B1" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="n">
+      <c r="C1" s="40" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2277,7 +2171,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2535,13 +2429,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="46" t="n">
+      <c r="A3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="41" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2794,13 +2688,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="46" t="n">
+      <c r="A4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="41" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3053,8 +2947,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>79</v>
+      <c r="A5" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3312,13 +3206,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="46" t="n">
+      <c r="A6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="41" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="41" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
@@ -3571,13 +3465,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="46" t="n">
+      <c r="A7" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="41" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3830,8 +3724,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>82</v>
+      <c r="A8" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4090,12 +3984,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="49" t="n">
+        <v>81</v>
+      </c>
+      <c r="B9" s="44" t="n">
         <v>250</v>
       </c>
-      <c r="C9" s="49" t="n">
+      <c r="C9" s="44" t="n">
         <v>250</v>
       </c>
       <c r="D9" s="0"/>
@@ -4349,10 +4243,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4603,8 +4497,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
-        <v>85</v>
+      <c r="A11" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4859,9 +4753,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="50"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="45"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5114,7 +5008,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.02</v>
@@ -5372,13 +5266,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="52" t="n">
+      <c r="A14" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="47" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="52" t="n">
+      <c r="C14" s="47" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5631,11 +5525,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
-        <v>89</v>
+      <c r="A15" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5886,11 +5780,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
-        <v>90</v>
+      <c r="A16" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6141,11 +6035,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6397,7 +6291,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6653,7 +6547,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="58"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6905,10 +6799,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="58"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7160,10 +7054,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="58"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7415,7 +7309,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7670,7 +7564,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7925,7 +7819,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8439,7 +8333,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8448,7 +8342,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -8698,7 +8592,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8707,7 +8601,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -8962,7 +8856,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8973,7 +8867,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8984,7 +8878,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8995,7 +8889,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9006,7 +8900,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9018,23 +8912,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="59" t="n">
+        <v>103</v>
+      </c>
+      <c r="B35" s="54" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="59" t="n">
+      <c r="C35" s="54" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="59" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" s="54" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="59" t="n">
+      <c r="C36" s="54" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9045,7 +8939,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9056,7 +8950,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9067,24 +8961,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9093,37 +8987,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="60" t="n">
+      <c r="A43" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="55" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="60" t="n">
+      <c r="C43" s="55" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="44" t="n">
+      <c r="A44" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="44" t="n">
+      <c r="C44" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="44" t="n">
+      <c r="A45" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="44" t="n">
+      <c r="C45" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9155,8 +9049,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9185,33 +9079,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="61" t="n">
+      <c r="C2" s="56" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="61" t="n">
+      <c r="D2" s="56" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="61" t="n">
+      <c r="E2" s="56" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="61" t="n">
+      <c r="F2" s="56" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="61" t="n">
+      <c r="G2" s="56" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="61" t="n">
+      <c r="H2" s="56" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -9237,21 +9131,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9277,7 +9171,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9303,59 +9197,59 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10000</v>
@@ -9381,33 +9275,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="62" t="n">
+        <v>126</v>
+      </c>
+      <c r="B12" s="57" t="n">
         <v>1100000000000</v>
       </c>
-      <c r="C12" s="62" t="n">
+      <c r="C12" s="57" t="n">
         <v>900000000000</v>
       </c>
-      <c r="D12" s="62" t="n">
+      <c r="D12" s="57" t="n">
         <v>700000000000</v>
       </c>
-      <c r="E12" s="62" t="n">
+      <c r="E12" s="57" t="n">
         <v>500000000000</v>
       </c>
-      <c r="F12" s="62" t="n">
+      <c r="F12" s="57" t="n">
         <v>225000000000</v>
       </c>
-      <c r="G12" s="62" t="n">
+      <c r="G12" s="57" t="n">
         <v>100000000000</v>
       </c>
-      <c r="H12" s="62" t="n">
+      <c r="H12" s="57" t="n">
         <v>110000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
@@ -9433,7 +9327,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9459,7 +9353,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -9485,7 +9379,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9511,7 +9405,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7500</v>
@@ -9537,7 +9431,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.4</v>

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1267,20 +1267,20 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.66836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,7 +1505,7 @@
       <c r="C23" s="0"/>
       <c r="F23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="C37" s="5"/>
       <c r="F37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
         <v>49</v>
       </c>
@@ -1901,15 +1901,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="1" sqref="C38 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.9234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.6938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9044,13 +9044,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="1" sqref="C38 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/2cam_flame.xlsx
+++ b/in/2cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
   <si>
     <t>Sim</t>
   </si>
@@ -577,12 +577,6 @@
   </si>
   <si>
     <t>nHead16</t>
-  </si>
-  <si>
-    <t>latWGS84</t>
-  </si>
-  <si>
-    <t>lonWGS84</t>
   </si>
   <si>
     <t>Bincl</t>
@@ -953,7 +947,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1170,10 +1164,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1266,7 +1256,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
@@ -1274,13 +1264,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.66836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,20 +1886,20 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IQ45"/>
+  <dimension ref="A1:IQ42"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="1" sqref="C38 C13"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.9234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,110 +8904,83 @@
       <c r="A35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="54" t="n">
-        <v>65.1186367</v>
-      </c>
-      <c r="C35" s="54" t="n">
-        <v>65.12657</v>
+      <c r="B35" s="4" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="54" t="n">
-        <v>-147.432975</v>
-      </c>
-      <c r="C36" s="54" t="n">
-        <v>-147.496908333</v>
+      <c r="B36" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
+      <c r="A37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>77.51</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>77.5</v>
+        <v>107</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A40" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="55" t="n">
+      <c r="B40" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="55" t="n">
+      <c r="C40" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="39" t="n">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="39" t="n">
+      <c r="C41" s="39" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="39" t="n">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="39" t="n">
+      <c r="C42" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9044,13 +9007,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="1" sqref="C38 E12"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9079,33 +9042,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="56" t="n">
+      <c r="C2" s="55" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="56" t="n">
+      <c r="D2" s="55" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="56" t="n">
+      <c r="E2" s="55" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="56" t="n">
+      <c r="F2" s="55" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="56" t="n">
+      <c r="G2" s="55" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="56" t="n">
+      <c r="H2" s="55" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -9131,21 +9094,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9171,7 +9134,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9197,59 +9160,59 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10000</v>
@@ -9275,33 +9238,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="57" t="n">
+        <v>124</v>
+      </c>
+      <c r="B12" s="56" t="n">
         <v>1100000000000</v>
       </c>
-      <c r="C12" s="57" t="n">
+      <c r="C12" s="56" t="n">
         <v>900000000000</v>
       </c>
-      <c r="D12" s="57" t="n">
+      <c r="D12" s="56" t="n">
         <v>700000000000</v>
       </c>
-      <c r="E12" s="57" t="n">
+      <c r="E12" s="56" t="n">
         <v>500000000000</v>
       </c>
-      <c r="F12" s="57" t="n">
+      <c r="F12" s="56" t="n">
         <v>225000000000</v>
       </c>
-      <c r="G12" s="57" t="n">
+      <c r="G12" s="56" t="n">
         <v>100000000000</v>
       </c>
-      <c r="H12" s="57" t="n">
+      <c r="H12" s="56" t="n">
         <v>110000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
@@ -9327,7 +9290,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9353,7 +9316,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -9379,7 +9342,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9405,7 +9368,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7500</v>
@@ -9431,7 +9394,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.4</v>
